--- a/Code/Results/Cases/Case_0_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_239/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01371755108519501</v>
+        <v>0.01644600113095862</v>
       </c>
       <c r="D2">
-        <v>0.03970961379546978</v>
+        <v>0.05921444607283988</v>
       </c>
       <c r="E2">
-        <v>0.1638026561035559</v>
+        <v>0.07458911246050093</v>
       </c>
       <c r="F2">
-        <v>2.204460472605902</v>
+        <v>1.734368667262302</v>
       </c>
       <c r="G2">
-        <v>0.0007867724697811565</v>
+        <v>0.002477133199180375</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.684187569471717</v>
+        <v>1.335212818010618</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.615248987982625</v>
+        <v>1.352155494448709</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.060596982709143</v>
+        <v>0.4203527620946375</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01418922734620232</v>
+        <v>0.01643156202132268</v>
       </c>
       <c r="D3">
-        <v>0.04060113691844691</v>
+        <v>0.05961461513903288</v>
       </c>
       <c r="E3">
-        <v>0.1418580663195996</v>
+        <v>0.06935873065619447</v>
       </c>
       <c r="F3">
-        <v>1.973588305324924</v>
+        <v>1.686935561353067</v>
       </c>
       <c r="G3">
-        <v>0.0007959397306129823</v>
+        <v>0.002482597736616221</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.509423329546891</v>
+        <v>1.2994965734689</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.115359145713796</v>
+        <v>1.221517008179603</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9128733413520322</v>
+        <v>0.3828091206204647</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01447438826399239</v>
+        <v>0.01642105954081252</v>
       </c>
       <c r="D4">
-        <v>0.04125244542480999</v>
+        <v>0.05988410839940883</v>
       </c>
       <c r="E4">
-        <v>0.1288074450352923</v>
+        <v>0.06620178186767589</v>
       </c>
       <c r="F4">
-        <v>1.837289356922582</v>
+        <v>1.658966743776446</v>
       </c>
       <c r="G4">
-        <v>0.0008016977507717757</v>
+        <v>0.002486125618293021</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.406331666503135</v>
+        <v>1.278456008639736</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.812936530106271</v>
+        <v>1.141922323139624</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8238948313036119</v>
+        <v>0.3599884099054194</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01458959934972448</v>
+        <v>0.01641637541846208</v>
       </c>
       <c r="D5">
-        <v>0.04154164338936184</v>
+        <v>0.05999984943760239</v>
       </c>
       <c r="E5">
-        <v>0.1235815073012212</v>
+        <v>0.06492871164675407</v>
       </c>
       <c r="F5">
-        <v>1.782966056338324</v>
+        <v>1.647856807896815</v>
       </c>
       <c r="G5">
-        <v>0.0008040789002470766</v>
+        <v>0.002487606826465839</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.365262962935773</v>
+        <v>1.270103165308853</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.690647827775479</v>
+        <v>1.109640783929819</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7880042772183273</v>
+        <v>0.350746087944195</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01460867363720642</v>
+        <v>0.01641557342433941</v>
       </c>
       <c r="D6">
-        <v>0.04159103716889234</v>
+        <v>0.06001942393595883</v>
       </c>
       <c r="E6">
-        <v>0.1227189302605574</v>
+        <v>0.06471812065857918</v>
       </c>
       <c r="F6">
-        <v>1.774015176431703</v>
+        <v>1.646029295635486</v>
       </c>
       <c r="G6">
-        <v>0.0008044764454027892</v>
+        <v>0.002487855416031205</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.358497192169708</v>
+        <v>1.268729485113298</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.670394287481486</v>
+        <v>1.104289716205017</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7820651857542984</v>
+        <v>0.3492148440783467</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0144759459030146</v>
+        <v>0.01642099799625818</v>
       </c>
       <c r="D7">
-        <v>0.04125625226432916</v>
+        <v>0.0598856454342318</v>
       </c>
       <c r="E7">
-        <v>0.1287366102465555</v>
+        <v>0.06618455888439456</v>
       </c>
       <c r="F7">
-        <v>1.836551987297128</v>
+        <v>1.658815750760823</v>
       </c>
       <c r="G7">
-        <v>0.0008017297204538411</v>
+        <v>0.002486145417951358</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.405774133263307</v>
+        <v>1.278342466026999</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.811283681168732</v>
+        <v>1.141486341551058</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8234093860124077</v>
+        <v>0.3598635338004073</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01388118415557926</v>
+        <v>0.01644136656754291</v>
       </c>
       <c r="D8">
-        <v>0.03999395172865761</v>
+        <v>0.05934745027062149</v>
       </c>
       <c r="E8">
-        <v>0.1561392817105087</v>
+        <v>0.0727741775300359</v>
       </c>
       <c r="F8">
-        <v>2.123626502609739</v>
+        <v>1.717772167615323</v>
       </c>
       <c r="G8">
-        <v>0.0007899078973312626</v>
+        <v>0.002478981636499864</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.622979745391604</v>
+        <v>1.322711884735114</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.441834162994553</v>
+        <v>1.306982185202003</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.009262951475549</v>
+        <v>0.407359196991834</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01267387572552892</v>
+        <v>0.01646800784610036</v>
       </c>
       <c r="D9">
-        <v>0.03846391697535978</v>
+        <v>0.05848354889464957</v>
       </c>
       <c r="E9">
-        <v>0.2139604689140597</v>
+        <v>0.08614325135629741</v>
       </c>
       <c r="F9">
-        <v>2.737626392264559</v>
+        <v>1.84269189390352</v>
       </c>
       <c r="G9">
-        <v>0.0007676398396617647</v>
+        <v>0.002466296045941101</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.088330050408359</v>
+        <v>1.416885275314257</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.723524541659572</v>
+        <v>1.63650626254389</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.390709092636627</v>
+        <v>0.5023764633544658</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01175399876709449</v>
+        <v>0.01647906014092548</v>
       </c>
       <c r="D10">
-        <v>0.03811296865259806</v>
+        <v>0.0579693752878363</v>
       </c>
       <c r="E10">
-        <v>0.2600978161707275</v>
+        <v>0.09625862483905934</v>
       </c>
       <c r="F10">
-        <v>3.232200896838975</v>
+        <v>1.940348117315978</v>
       </c>
       <c r="G10">
-        <v>0.0007516600597078395</v>
+        <v>0.00245779647300577</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.463774033876263</v>
+        <v>1.490601006326074</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.707788199014828</v>
+        <v>1.881794495536042</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.686620402375965</v>
+        <v>0.5733993375390298</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01132669351745896</v>
+        <v>0.01648215450957657</v>
       </c>
       <c r="D11">
-        <v>0.03817535656975934</v>
+        <v>0.05776246223371118</v>
       </c>
       <c r="E11">
-        <v>0.2821947722818976</v>
+        <v>0.1009285874198298</v>
       </c>
       <c r="F11">
-        <v>3.469919909798733</v>
+        <v>1.986095767998677</v>
       </c>
       <c r="G11">
-        <v>0.0007444262816027614</v>
+        <v>0.002454105798873353</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.644393981633627</v>
+        <v>1.525154009565668</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.168830312162186</v>
+        <v>1.994108910505361</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.826059918234648</v>
+        <v>0.6059885930825573</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01116347728082445</v>
+        <v>0.01648304174253745</v>
       </c>
       <c r="D12">
-        <v>0.0382364675380451</v>
+        <v>0.05768805943824162</v>
       </c>
       <c r="E12">
-        <v>0.2907532964362005</v>
+        <v>0.102707176859532</v>
       </c>
       <c r="F12">
-        <v>3.56209566238104</v>
+        <v>2.003612980429864</v>
       </c>
       <c r="G12">
-        <v>0.0007416875245609742</v>
+        <v>0.002452733353961105</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.714455511436739</v>
+        <v>1.538387611226369</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.345726644805723</v>
+        <v>2.0367469976282</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.87969793261496</v>
+        <v>0.6183707836078156</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01119869336422852</v>
+        <v>0.01648286341707816</v>
       </c>
       <c r="D13">
-        <v>0.03822153940062734</v>
+        <v>0.05770390658214808</v>
       </c>
       <c r="E13">
-        <v>0.2889010170595867</v>
+        <v>0.1023236678264396</v>
       </c>
       <c r="F13">
-        <v>3.542142293457971</v>
+        <v>1.999831673737418</v>
       </c>
       <c r="G13">
-        <v>0.0007422774227006212</v>
+        <v>0.002453027818980078</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.699288029249686</v>
+        <v>1.535530844916977</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.307519096622002</v>
+        <v>2.027559330935844</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.868106379219384</v>
+        <v>0.6157022022880909</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01131329452045904</v>
+        <v>0.01648223324098197</v>
       </c>
       <c r="D14">
-        <v>0.03817959742843158</v>
+        <v>0.05775626149058155</v>
       </c>
       <c r="E14">
-        <v>0.282894862403154</v>
+        <v>0.1010747071617288</v>
       </c>
       <c r="F14">
-        <v>3.477457988395258</v>
+        <v>1.987533021305921</v>
       </c>
       <c r="G14">
-        <v>0.0007442009807463457</v>
+        <v>0.002453992384279072</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.650123038409347</v>
+        <v>1.526239742481806</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.183334880385246</v>
+        <v>1.997614615120995</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.830455118370026</v>
+        <v>0.6070064488994404</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01138330420834421</v>
+        <v>0.01648180999586657</v>
       </c>
       <c r="D15">
-        <v>0.03815897090358078</v>
+        <v>0.05778884696871955</v>
       </c>
       <c r="E15">
-        <v>0.2792418020013088</v>
+        <v>0.1003110179487976</v>
       </c>
       <c r="F15">
-        <v>3.438128404824369</v>
+        <v>1.980025047836818</v>
       </c>
       <c r="G15">
-        <v>0.0007453791346384051</v>
+        <v>0.002454586476739364</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.620233001168728</v>
+        <v>1.520568171049021</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.107582157419642</v>
+        <v>1.979286610318752</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.807505995050192</v>
+        <v>0.6016854634449516</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01178173468192689</v>
+        <v>0.01647881844983345</v>
       </c>
       <c r="D16">
-        <v>0.03811381193406049</v>
+        <v>0.0579834465570741</v>
       </c>
       <c r="E16">
-        <v>0.2586786106577961</v>
+        <v>0.09595483738580413</v>
       </c>
       <c r="F16">
-        <v>3.216948321950269</v>
+        <v>1.93738530902553</v>
       </c>
       <c r="G16">
-        <v>0.0007521331425138963</v>
+        <v>0.002458041192438497</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.452188462479668</v>
+        <v>1.488363615452073</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.677958133953098</v>
+        <v>1.874469362371372</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.677616397681561</v>
+        <v>0.5712752840594106</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01202379695621225</v>
+        <v>0.01647648333672436</v>
       </c>
       <c r="D17">
-        <v>0.03814662702739824</v>
+        <v>0.05810978869886796</v>
       </c>
       <c r="E17">
-        <v>0.2463685383455001</v>
+        <v>0.09330022563766249</v>
       </c>
       <c r="F17">
-        <v>3.084739093216882</v>
+        <v>1.911568470553192</v>
       </c>
       <c r="G17">
-        <v>0.0007562825538335316</v>
+        <v>0.002460205474117329</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.351782641840487</v>
+        <v>1.468870048416846</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.418066775613966</v>
+        <v>1.810356044630794</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.599263317311838</v>
+        <v>0.5526921932475091</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01216219967665033</v>
+        <v>0.01647495863885773</v>
       </c>
       <c r="D18">
-        <v>0.03818601477237493</v>
+        <v>0.05818499328385229</v>
       </c>
       <c r="E18">
-        <v>0.2393903199101786</v>
+        <v>0.0917797836345855</v>
       </c>
       <c r="F18">
-        <v>3.009872247423687</v>
+        <v>1.896843669702747</v>
       </c>
       <c r="G18">
-        <v>0.0007586728401178031</v>
+        <v>0.002461466870149513</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.294939811231558</v>
+        <v>1.457753656238054</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.269808378819334</v>
+        <v>1.773548502727465</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.554641469282942</v>
+        <v>0.5420300406400003</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01220892285466313</v>
+        <v>0.01647441141330752</v>
       </c>
       <c r="D19">
-        <v>0.03820272048567475</v>
+        <v>0.05821088969173616</v>
       </c>
       <c r="E19">
-        <v>0.2370442945026028</v>
+        <v>0.09126608064881481</v>
       </c>
       <c r="F19">
-        <v>2.984716564706673</v>
+        <v>1.891879365133065</v>
       </c>
       <c r="G19">
-        <v>0.0007594829062136776</v>
+        <v>0.002461896805508419</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.275842717164934</v>
+        <v>1.45400621196417</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.219809780765331</v>
+        <v>1.761097852796013</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.539605731356644</v>
+        <v>0.5384245145465627</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.011998115382438</v>
+        <v>0.01647675075694544</v>
       </c>
       <c r="D20">
-        <v>0.0381409736459517</v>
+        <v>0.05809607639892889</v>
       </c>
       <c r="E20">
-        <v>0.2476681769942317</v>
+        <v>0.0935821466757929</v>
       </c>
       <c r="F20">
-        <v>3.098689041747662</v>
+        <v>1.914303822491689</v>
       </c>
       <c r="G20">
-        <v>0.0007558404947143018</v>
+        <v>0.002459973369829171</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.362375348944724</v>
+        <v>1.470935239420371</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.445603268379386</v>
+        <v>1.817173888936679</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.607557154362354</v>
+        <v>0.5546676607398098</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01127967254679874</v>
+        <v>0.0164824261126153</v>
       </c>
       <c r="D21">
-        <v>0.03819085003511802</v>
+        <v>0.0577407758032038</v>
       </c>
       <c r="E21">
-        <v>0.2846535578478893</v>
+        <v>0.1014412783125351</v>
       </c>
       <c r="F21">
-        <v>3.496395948129873</v>
+        <v>1.991140153955797</v>
       </c>
       <c r="G21">
-        <v>0.0007436360113937464</v>
+        <v>0.002453708387257315</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.664516603609883</v>
+        <v>1.528964696728039</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.219744617757783</v>
+        <v>2.00640718337678</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.841490296693308</v>
+        <v>0.6095594722512203</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01080188191220444</v>
+        <v>0.01648447392021346</v>
       </c>
       <c r="D22">
-        <v>0.0384453121347903</v>
+        <v>0.05753162695759073</v>
       </c>
       <c r="E22">
-        <v>0.3099569554961619</v>
+        <v>0.1066371474838945</v>
       </c>
       <c r="F22">
-        <v>3.769082608985059</v>
+        <v>2.042486955369128</v>
       </c>
       <c r="G22">
-        <v>0.0007356600078227137</v>
+        <v>0.002449760283312218</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.871834076993736</v>
+        <v>1.567760741629542</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.739387416244142</v>
+        <v>2.13070700087826</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.999331107777422</v>
+        <v>0.6456759246390362</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01105768468627844</v>
+        <v>0.01648353507624911</v>
       </c>
       <c r="D23">
-        <v>0.03828708349395882</v>
+        <v>0.05764112026702506</v>
       </c>
       <c r="E23">
-        <v>0.2963366968543468</v>
+        <v>0.1038584604497785</v>
       </c>
       <c r="F23">
-        <v>3.622255016503459</v>
+        <v>2.014977732270296</v>
       </c>
       <c r="G23">
-        <v>0.0007399186349366389</v>
+        <v>0.002451854112352604</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.760189391218972</v>
+        <v>1.546974068434722</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.460641976902878</v>
+        <v>2.064308034705277</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.914582453410304</v>
+        <v>0.6263774629913712</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01200972838562286</v>
+        <v>0.01647663042393255</v>
       </c>
       <c r="D24">
-        <v>0.03814346602523599</v>
+        <v>0.05810226773444782</v>
       </c>
       <c r="E24">
-        <v>0.2470803042795851</v>
+        <v>0.0934546723530616</v>
       </c>
       <c r="F24">
-        <v>3.092378736835514</v>
+        <v>1.913066803694306</v>
       </c>
       <c r="G24">
-        <v>0.0007560403345852466</v>
+        <v>0.002460078250727778</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.357583657861639</v>
+        <v>1.470001284190076</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.433150446598916</v>
+        <v>1.814091379514537</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.603806199113095</v>
+        <v>0.5537744849507504</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01300568380150757</v>
+        <v>0.01646226816914975</v>
       </c>
       <c r="D25">
-        <v>0.03875813490137503</v>
+        <v>0.05869636629100938</v>
       </c>
       <c r="E25">
-        <v>0.1977704944528966</v>
+        <v>0.08247659784863259</v>
       </c>
       <c r="F25">
-        <v>2.564881888450486</v>
+        <v>1.807880471343026</v>
       </c>
       <c r="G25">
-        <v>0.0007735829347230037</v>
+        <v>0.002469583011092047</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.957314133735878</v>
+        <v>1.390625498502203</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.370524225156487</v>
+        <v>1.546812476570722</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.285195006458764</v>
+        <v>0.4764636719579016</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_239/res_line/pl_mw.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01644600113095862</v>
+        <v>0.01371755108496941</v>
       </c>
       <c r="D2">
-        <v>0.05921444607283988</v>
+        <v>0.0397096137957007</v>
       </c>
       <c r="E2">
-        <v>0.07458911246050093</v>
+        <v>0.1638026561035844</v>
       </c>
       <c r="F2">
-        <v>1.734368667262302</v>
+        <v>2.204460472605888</v>
       </c>
       <c r="G2">
-        <v>0.002477133199180375</v>
+        <v>0.0007867724697822334</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.335212818010618</v>
+        <v>1.684187569471703</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.352155494448709</v>
+        <v>3.615248987982454</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4203527620946375</v>
+        <v>1.060596982709122</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01643156202132268</v>
+        <v>0.01418922734663486</v>
       </c>
       <c r="D3">
-        <v>0.05961461513903288</v>
+        <v>0.04060113691843625</v>
       </c>
       <c r="E3">
-        <v>0.06935873065619447</v>
+        <v>0.1418580663195996</v>
       </c>
       <c r="F3">
-        <v>1.686935561353067</v>
+        <v>1.97358830532491</v>
       </c>
       <c r="G3">
-        <v>0.002482597736616221</v>
+        <v>0.000795939730611539</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.2994965734689</v>
+        <v>1.509423329546891</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.221517008179603</v>
+        <v>3.115359145713853</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3828091206204647</v>
+        <v>0.9128733413520322</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01642105954081252</v>
+        <v>0.01447438826418956</v>
       </c>
       <c r="D4">
-        <v>0.05988410839940883</v>
+        <v>0.04125244542460393</v>
       </c>
       <c r="E4">
-        <v>0.06620178186767589</v>
+        <v>0.1288074450352852</v>
       </c>
       <c r="F4">
-        <v>1.658966743776446</v>
+        <v>1.837289356922582</v>
       </c>
       <c r="G4">
-        <v>0.002486125618293021</v>
+        <v>0.0008016977507723233</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.278456008639736</v>
+        <v>1.406331666503107</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.141922323139624</v>
+        <v>2.812936530106299</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3599884099054194</v>
+        <v>0.8238948313036047</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01641637541846208</v>
+        <v>0.0145895993497156</v>
       </c>
       <c r="D5">
-        <v>0.05999984943760239</v>
+        <v>0.04154164338925526</v>
       </c>
       <c r="E5">
-        <v>0.06492871164675407</v>
+        <v>0.1235815073012212</v>
       </c>
       <c r="F5">
-        <v>1.647856807896815</v>
+        <v>1.782966056338296</v>
       </c>
       <c r="G5">
-        <v>0.002487606826465839</v>
+        <v>0.0008040789003221754</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.270103165308853</v>
+        <v>1.365262962935773</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.109640783929819</v>
+        <v>2.690647827775535</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.350746087944195</v>
+        <v>0.7880042772183344</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01641557342433941</v>
+        <v>0.01460867363761942</v>
       </c>
       <c r="D6">
-        <v>0.06001942393595883</v>
+        <v>0.04159103716868984</v>
       </c>
       <c r="E6">
-        <v>0.06471812065857918</v>
+        <v>0.1227189302605396</v>
       </c>
       <c r="F6">
-        <v>1.646029295635486</v>
+        <v>1.774015176431675</v>
       </c>
       <c r="G6">
-        <v>0.002487855416031205</v>
+        <v>0.0008044764454009506</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.268729485113298</v>
+        <v>1.358497192169708</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.104289716205017</v>
+        <v>2.670394287481486</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3492148440783467</v>
+        <v>0.7820651857543055</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01642099799625818</v>
+        <v>0.01447594590300305</v>
       </c>
       <c r="D7">
-        <v>0.0598856454342318</v>
+        <v>0.04125625226443219</v>
       </c>
       <c r="E7">
-        <v>0.06618455888439456</v>
+        <v>0.1287366102466159</v>
       </c>
       <c r="F7">
-        <v>1.658815750760823</v>
+        <v>1.836551987297142</v>
       </c>
       <c r="G7">
-        <v>0.002486145417951358</v>
+        <v>0.0008017297205012985</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.278342466026999</v>
+        <v>1.405774133263307</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.141486341551058</v>
+        <v>2.81128368116876</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3598635338004073</v>
+        <v>0.8234093860123934</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01644136656754291</v>
+        <v>0.01388118415603046</v>
       </c>
       <c r="D8">
-        <v>0.05934745027062149</v>
+        <v>0.03999395172856168</v>
       </c>
       <c r="E8">
-        <v>0.0727741775300359</v>
+        <v>0.1561392817105016</v>
       </c>
       <c r="F8">
-        <v>1.717772167615323</v>
+        <v>2.123626502609724</v>
       </c>
       <c r="G8">
-        <v>0.002478981636499864</v>
+        <v>0.0007899078973909734</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.322711884735114</v>
+        <v>1.622979745391604</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.306982185202003</v>
+        <v>3.441834162994553</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.407359196991834</v>
+        <v>1.009262951475534</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01646800784610036</v>
+        <v>0.01267387572600676</v>
       </c>
       <c r="D9">
-        <v>0.05848354889464957</v>
+        <v>0.03846391697546991</v>
       </c>
       <c r="E9">
-        <v>0.08614325135629741</v>
+        <v>0.2139604689140171</v>
       </c>
       <c r="F9">
-        <v>1.84269189390352</v>
+        <v>2.737626392264559</v>
       </c>
       <c r="G9">
-        <v>0.002466296045941101</v>
+        <v>0.0007676398398387215</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.416885275314257</v>
+        <v>2.088330050408388</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.63650626254389</v>
+        <v>4.723524541659572</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5023764633544658</v>
+        <v>1.390709092636612</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01647906014092548</v>
+        <v>0.01175399876730943</v>
       </c>
       <c r="D10">
-        <v>0.0579693752878363</v>
+        <v>0.03811296865245595</v>
       </c>
       <c r="E10">
-        <v>0.09625862483905934</v>
+        <v>0.2600978161707985</v>
       </c>
       <c r="F10">
-        <v>1.940348117315978</v>
+        <v>3.232200896838947</v>
       </c>
       <c r="G10">
-        <v>0.00245779647300577</v>
+        <v>0.0007516600597154515</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.490601006326074</v>
+        <v>2.463774033876291</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.881794495536042</v>
+        <v>5.707788199014772</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5733993375390298</v>
+        <v>1.686620402375979</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01648215450957657</v>
+        <v>0.01132669351741455</v>
       </c>
       <c r="D11">
-        <v>0.05776246223371118</v>
+        <v>0.03817535656976645</v>
       </c>
       <c r="E11">
-        <v>0.1009285874198298</v>
+        <v>0.2821947722819118</v>
       </c>
       <c r="F11">
-        <v>1.986095767998677</v>
+        <v>3.469919909798733</v>
       </c>
       <c r="G11">
-        <v>0.002454105798873353</v>
+        <v>0.000744426281536148</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.525154009565668</v>
+        <v>2.644393981633641</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.994108910505361</v>
+        <v>6.168830312162186</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6059885930825573</v>
+        <v>1.826059918234677</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01648304174253745</v>
+        <v>0.01116347728110689</v>
       </c>
       <c r="D12">
-        <v>0.05768805943824162</v>
+        <v>0.03823646753784615</v>
       </c>
       <c r="E12">
-        <v>0.102707176859532</v>
+        <v>0.2907532964361863</v>
       </c>
       <c r="F12">
-        <v>2.003612980429864</v>
+        <v>3.56209566238104</v>
       </c>
       <c r="G12">
-        <v>0.002452733353961105</v>
+        <v>0.0007416875243841088</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.538387611226369</v>
+        <v>2.714455511436711</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.0367469976282</v>
+        <v>6.345726644805438</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6183707836078156</v>
+        <v>1.87969793261496</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01648286341707816</v>
+        <v>0.01119869336444346</v>
       </c>
       <c r="D13">
-        <v>0.05770390658214808</v>
+        <v>0.03822153940062378</v>
       </c>
       <c r="E13">
-        <v>0.1023236678264396</v>
+        <v>0.2889010170595583</v>
       </c>
       <c r="F13">
-        <v>1.999831673737418</v>
+        <v>3.542142293457971</v>
       </c>
       <c r="G13">
-        <v>0.002453027818980078</v>
+        <v>0.0007422774227124355</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.535530844916977</v>
+        <v>2.699288029249686</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.027559330935844</v>
+        <v>6.307519096621832</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6157022022880909</v>
+        <v>1.868106379219384</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01648223324098197</v>
+        <v>0.01131329451999008</v>
       </c>
       <c r="D14">
-        <v>0.05775626149058155</v>
+        <v>0.03817959742845645</v>
       </c>
       <c r="E14">
-        <v>0.1010747071617288</v>
+        <v>0.2828948624031113</v>
       </c>
       <c r="F14">
-        <v>1.987533021305921</v>
+        <v>3.477457988395201</v>
       </c>
       <c r="G14">
-        <v>0.002453992384279072</v>
+        <v>0.0007442009807514777</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.526239742481806</v>
+        <v>2.650123038409305</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.997614615120995</v>
+        <v>6.183334880385189</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6070064488994404</v>
+        <v>1.830455118370011</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01648180999586657</v>
+        <v>0.01138330420882561</v>
       </c>
       <c r="D15">
-        <v>0.05778884696871955</v>
+        <v>0.03815897090343512</v>
       </c>
       <c r="E15">
-        <v>0.1003110179487976</v>
+        <v>0.2792418020012377</v>
       </c>
       <c r="F15">
-        <v>1.980025047836818</v>
+        <v>3.438128404824397</v>
       </c>
       <c r="G15">
-        <v>0.002454586476739364</v>
+        <v>0.0007453791345685697</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.520568171049021</v>
+        <v>2.620233001168714</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.979286610318752</v>
+        <v>6.107582157419642</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6016854634449516</v>
+        <v>1.807505995050207</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01647881844983345</v>
+        <v>0.01178173468193044</v>
       </c>
       <c r="D16">
-        <v>0.0579834465570741</v>
+        <v>0.03811381193418839</v>
       </c>
       <c r="E16">
-        <v>0.09595483738580413</v>
+        <v>0.2586786106577534</v>
       </c>
       <c r="F16">
-        <v>1.93738530902553</v>
+        <v>3.216948321950298</v>
       </c>
       <c r="G16">
-        <v>0.002458041192438497</v>
+        <v>0.0007521331424584786</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.488363615452073</v>
+        <v>2.452188462479668</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.874469362371372</v>
+        <v>5.677958133953155</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5712752840594106</v>
+        <v>1.677616397681561</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01647648333672436</v>
+        <v>0.01202379695592271</v>
       </c>
       <c r="D17">
-        <v>0.05810978869886796</v>
+        <v>0.03814662702727389</v>
       </c>
       <c r="E17">
-        <v>0.09330022563766249</v>
+        <v>0.2463685383455214</v>
       </c>
       <c r="F17">
-        <v>1.911568470553192</v>
+        <v>3.084739093216911</v>
       </c>
       <c r="G17">
-        <v>0.002460205474117329</v>
+        <v>0.0007562825538330787</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.468870048416846</v>
+        <v>2.351782641840501</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.810356044630794</v>
+        <v>5.418066775613909</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5526921932475091</v>
+        <v>1.599263317311852</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01647495863885773</v>
+        <v>0.01216219967689547</v>
       </c>
       <c r="D18">
-        <v>0.05818499328385229</v>
+        <v>0.03818601477236427</v>
       </c>
       <c r="E18">
-        <v>0.0917797836345855</v>
+        <v>0.2393903199101786</v>
       </c>
       <c r="F18">
-        <v>1.896843669702747</v>
+        <v>3.009872247423687</v>
       </c>
       <c r="G18">
-        <v>0.002461466870149513</v>
+        <v>0.0007586728400526344</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.457753656238054</v>
+        <v>2.294939811231572</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.773548502727465</v>
+        <v>5.269808378819448</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5420300406400003</v>
+        <v>1.554641469282942</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01647441141330752</v>
+        <v>0.01220892285489406</v>
       </c>
       <c r="D19">
-        <v>0.05821088969173616</v>
+        <v>0.0382027204856854</v>
       </c>
       <c r="E19">
-        <v>0.09126608064881481</v>
+        <v>0.2370442945025886</v>
       </c>
       <c r="F19">
-        <v>1.891879365133065</v>
+        <v>2.98471656470673</v>
       </c>
       <c r="G19">
-        <v>0.002461896805508419</v>
+        <v>0.0007594829060894919</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.45400621196417</v>
+        <v>2.275842717164934</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.761097852796013</v>
+        <v>5.219809780765331</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5384245145465627</v>
+        <v>1.539605731356616</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01647675075694544</v>
+        <v>0.01199811538221063</v>
       </c>
       <c r="D20">
-        <v>0.05809607639892889</v>
+        <v>0.03814097364596947</v>
       </c>
       <c r="E20">
-        <v>0.0935821466757929</v>
+        <v>0.2476681769942388</v>
       </c>
       <c r="F20">
-        <v>1.914303822491689</v>
+        <v>3.09868904174769</v>
       </c>
       <c r="G20">
-        <v>0.002459973369829171</v>
+        <v>0.0007558404947136929</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.470935239420371</v>
+        <v>2.362375348944724</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.817173888936679</v>
+        <v>5.44560326837933</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5546676607398098</v>
+        <v>1.607557154362368</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0164824261126153</v>
+        <v>0.01127967254680051</v>
       </c>
       <c r="D21">
-        <v>0.0577407758032038</v>
+        <v>0.03819085003511447</v>
       </c>
       <c r="E21">
-        <v>0.1014412783125351</v>
+        <v>0.2846535578478893</v>
       </c>
       <c r="F21">
-        <v>1.991140153955797</v>
+        <v>3.496395948129901</v>
       </c>
       <c r="G21">
-        <v>0.002453708387257315</v>
+        <v>0.000743636011393362</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.528964696728039</v>
+        <v>2.664516603609869</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.00640718337678</v>
+        <v>6.219744617757783</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6095594722512203</v>
+        <v>1.841490296693323</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01648447392021346</v>
+        <v>0.01080188191196996</v>
       </c>
       <c r="D22">
-        <v>0.05753162695759073</v>
+        <v>0.03844531213476898</v>
       </c>
       <c r="E22">
-        <v>0.1066371474838945</v>
+        <v>0.3099569554961477</v>
       </c>
       <c r="F22">
-        <v>2.042486955369128</v>
+        <v>3.769082608985087</v>
       </c>
       <c r="G22">
-        <v>0.002449760283312218</v>
+        <v>0.0007356600078189402</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.567760741629542</v>
+        <v>2.871834076993721</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.13070700087826</v>
+        <v>6.739387416244369</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6456759246390362</v>
+        <v>1.999331107777465</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01648353507624911</v>
+        <v>0.01105768468644897</v>
       </c>
       <c r="D23">
-        <v>0.05764112026702506</v>
+        <v>0.03828708349418974</v>
       </c>
       <c r="E23">
-        <v>0.1038584604497785</v>
+        <v>0.2963366968543397</v>
       </c>
       <c r="F23">
-        <v>2.014977732270296</v>
+        <v>3.622255016503431</v>
       </c>
       <c r="G23">
-        <v>0.002451854112352604</v>
+        <v>0.0007399186349372703</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.546974068434722</v>
+        <v>2.760189391219001</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.064308034705277</v>
+        <v>6.460641976902764</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6263774629913712</v>
+        <v>1.914582453410318</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01647663042393255</v>
+        <v>0.01200972838561931</v>
       </c>
       <c r="D24">
-        <v>0.05810226773444782</v>
+        <v>0.0381434660249873</v>
       </c>
       <c r="E24">
-        <v>0.0934546723530616</v>
+        <v>0.2470803042795922</v>
       </c>
       <c r="F24">
-        <v>1.913066803694306</v>
+        <v>3.092378736835514</v>
       </c>
       <c r="G24">
-        <v>0.002460078250727778</v>
+        <v>0.0007560403345845689</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.470001284190076</v>
+        <v>2.357583657861639</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.814091379514537</v>
+        <v>5.433150446599143</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5537744849507504</v>
+        <v>1.603806199113109</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01646226816914975</v>
+        <v>0.01300568380126954</v>
       </c>
       <c r="D25">
-        <v>0.05869636629100938</v>
+        <v>0.03875813490159885</v>
       </c>
       <c r="E25">
-        <v>0.08247659784863259</v>
+        <v>0.1977704944528611</v>
       </c>
       <c r="F25">
-        <v>1.807880471343026</v>
+        <v>2.564881888450515</v>
       </c>
       <c r="G25">
-        <v>0.002469583011092047</v>
+        <v>0.0007735829347213657</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.390625498502203</v>
+        <v>1.957314133735892</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.546812476570722</v>
+        <v>4.37052422515643</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4764636719579016</v>
+        <v>1.285195006458792</v>
       </c>
       <c r="N25">
         <v>0</v>
